--- a/xlsx/MIT Technology Review_intext.xlsx
+++ b/xlsx/MIT Technology Review_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>MIT Technology Review</t>
   </si>
@@ -29,7 +29,7 @@
     <t>万维网</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_MIT Technology Review</t>
+    <t>政策_政策_维基百科_MIT Technology Review</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E6%99%AF</t>
   </si>
   <si>
-    <t>網景</t>
+    <t>网景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
@@ -185,13 +185,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/L.%E6%8B%89%E6%96%90%E7%88%BE%C2%B7%E8%B3%B4%E5%A4%AB</t>
   </si>
   <si>
-    <t>L.拉斐爾·賴夫</t>
+    <t>L.拉斐尔·赖夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Institute_Professors_at_the_Massachusetts_Institute_of_Technology</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%B7%B4%E9%A0%93%C2%B7%E7%BE%85%E5%82%91%E6%96%AF</t>
   </si>
   <si>
-    <t>威廉·巴頓·羅傑斯</t>
+    <t>威廉·巴顿·罗杰斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2%E6%A0%A1%E5%9B%AD</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2%E6%95%B8%E5%AD%B8%E7%B3%BB</t>
   </si>
   <si>
-    <t>麻省理工學院數學系</t>
+    <t>麻省理工学院数学系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIT%E6%96%AF%E9%9A%86%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛-麻省理工醫療科技學院</t>
+    <t>哈佛-麻省理工医疗科技学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Broad_Institute</t>
@@ -1497,7 +1494,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1523,10 +1520,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1552,10 +1549,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1581,10 +1578,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1610,10 +1607,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1639,10 +1636,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1668,10 +1665,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1697,10 +1694,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1726,10 +1723,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1755,10 +1752,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1787,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1813,13 +1810,13 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" t="s">
-        <v>76</v>
-      </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -1842,10 +1839,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1871,10 +1868,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1900,10 +1897,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1929,10 +1926,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1958,10 +1955,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1987,10 +1984,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2016,10 +2013,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2045,10 +2042,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2074,10 +2071,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2103,10 +2100,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2132,10 +2129,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -2161,10 +2158,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
